--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/01/2022</t>
+          <t>18/03/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/03/2022</t>
+          <t>21/02/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14599,11 +14599,11 @@
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14617,7 +14617,7 @@
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10047,7 +10047,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>24/05/2013</t>
+          <t>25/05/2013</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -932,7 +932,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10999,11 +10999,11 @@
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11012,12 +11012,12 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11047,11 +11047,11 @@
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11060,12 +11060,12 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -14488,7 +14488,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -14498,16 +14498,16 @@
       </c>
       <c r="D295" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E295" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F295" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G295" t="inlineStr">
         <is>
@@ -14516,12 +14516,12 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I295" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
@@ -14536,7 +14536,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -14551,11 +14551,11 @@
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F296" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G296" t="inlineStr">
         <is>
@@ -14569,7 +14569,7 @@
       </c>
       <c r="I296" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J296" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -19048,7 +19048,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -19063,11 +19063,11 @@
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F390" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G390" t="inlineStr">
         <is>
@@ -19076,12 +19076,12 @@
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I390" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J390" t="inlineStr">
@@ -19096,7 +19096,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -19111,11 +19111,11 @@
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F391" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G391" t="inlineStr">
         <is>
@@ -19124,12 +19124,12 @@
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19682,16 +19682,16 @@
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19730,16 +19730,16 @@
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -23840,7 +23840,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -23855,7 +23855,7 @@
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F490" t="n">
@@ -23868,12 +23868,12 @@
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I490" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
@@ -23888,7 +23888,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -23903,7 +23903,7 @@
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F491" t="n">
@@ -23916,12 +23916,12 @@
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I491" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11095,11 +11095,11 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11108,12 +11108,12 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -14584,7 +14584,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -14594,16 +14594,16 @@
       </c>
       <c r="D297" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E297" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F297" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G297" t="inlineStr">
         <is>
@@ -14612,12 +14612,12 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I297" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J297" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14647,11 +14647,11 @@
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14665,7 +14665,7 @@
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -19144,7 +19144,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -19159,11 +19159,11 @@
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F392" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G392" t="inlineStr">
         <is>
@@ -19172,12 +19172,12 @@
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I392" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J392" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19778,16 +19778,16 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
@@ -23951,7 +23951,7 @@
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F492" t="n">
@@ -23964,12 +23964,12 @@
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I492" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
@@ -23984,7 +23984,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24012,12 +24012,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularizacion Sistema de Riego con Agua tratada de RILES</t>
+          <t>Proyecto Parque Fotovoltaico Zeus Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Essity Chile SA</t>
+          <t>CVE Proyecto Diecinueve SpA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>12800</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155884729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156300681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Parque Fotovoltaico Zeus Solar</t>
+          <t>Proyecto Línea de Alta Tensión y Subestación Santa Teresa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,25 +487,25 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecinueve SpA</t>
+          <t>ELECTRICA SANTA TERESA SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12800</v>
+        <v>30528</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>18/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156300681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155916312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Alta Tensión y Subestación Santa Teresa</t>
+          <t>Regularizacion Sistema de Riego con Agua tratada de RILES</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,25 +535,25 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ELECTRICA SANTA TERESA SPA</t>
+          <t>Essity Chile SA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30528</v>
+        <v>95</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>17/06/2022</t>
+          <t>20/06/2022</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155916312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155884729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -23984,7 +23984,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24012,12 +24012,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11143,11 +11143,11 @@
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11156,12 +11156,12 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -14632,7 +14632,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -14642,16 +14642,16 @@
       </c>
       <c r="D298" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E298" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F298" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G298" t="inlineStr">
         <is>
@@ -14660,12 +14660,12 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I298" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J298" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -19192,7 +19192,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -19207,11 +19207,11 @@
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F393" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G393" t="inlineStr">
         <is>
@@ -19220,12 +19220,12 @@
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19826,16 +19826,16 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -23984,7 +23984,7 @@
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
@@ -23999,7 +23999,7 @@
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F493" t="n">
@@ -24012,12 +24012,12 @@
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I493" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J493" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -788,7 +788,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>30/06/2022</t>
+          <t>06/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Segunda Etapa, Obras complementarias Centro Industrial Parque Capital</t>
+          <t>Regularizacion Sistema de Riego con Agua tratada de RILES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -439,25 +439,25 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Parque Capital s.a</t>
+          <t>Essity Chile SA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>46590</v>
+        <v>95</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>06/07/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156365878&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155884729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Proyecto Parque Fotovoltaico Zeus Solar</t>
+          <t>Segunda Etapa, Obras complementarias Centro Industrial Parque Capital</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -487,15 +487,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CVE Proyecto Diecinueve SpA</t>
+          <t>Parque Capital s.a</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>12800</v>
+        <v>46590</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/06/2022</t>
+          <t>06/07/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156300681&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156365878&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Proyecto Línea de Alta Tensión y Subestación Santa Teresa</t>
+          <t>Proyecto Parque Fotovoltaico Zeus Solar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,11 +535,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>ELECTRICA SANTA TERESA SPA</t>
+          <t>CVE Proyecto Diecinueve SpA</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>30528</v>
+        <v>12800</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -553,7 +553,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155916312&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156300681&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Regularizacion Sistema de Riego con Agua tratada de RILES</t>
+          <t>Proyecto Línea de Alta Tensión y Subestación Santa Teresa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,25 +583,25 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Essity Chile SA</t>
+          <t>ELECTRICA SANTA TERESA SPA</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>95</v>
+        <v>30528</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>20/06/2022</t>
+          <t>22/06/2022</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155884729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155916312&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10239,7 +10239,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>25/05/2013</t>
+          <t>24/05/2013</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14743,11 +14743,11 @@
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14761,7 +14761,7 @@
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11191,11 +11191,11 @@
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11204,12 +11204,12 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -14680,7 +14680,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -14690,16 +14690,16 @@
       </c>
       <c r="D299" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E299" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F299" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G299" t="inlineStr">
         <is>
@@ -14708,12 +14708,12 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I299" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -19240,7 +19240,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -19255,11 +19255,11 @@
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F394" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G394" t="inlineStr">
         <is>
@@ -19268,12 +19268,12 @@
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I394" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J394" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19874,16 +19874,16 @@
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -24032,7 +24032,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
@@ -24047,7 +24047,7 @@
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F494" t="n">
@@ -24060,12 +24060,12 @@
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I494" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J494" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Regularizacion Sistema de Riego con Agua tratada de RILES</t>
+          <t>Regularizacion Sistema de Riego con agua tratada de RILES</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -447,17 +447,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2022</t>
+          <t>16/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155884729&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156687722&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Regularizacion Sistema de Riego con agua tratada de RILES</t>
+          <t>Regularizacion Sistema de Riego con Agua tratada de RILES</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -495,17 +495,17 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>16/08/2022</t>
+          <t>18/08/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2156687722&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155884729&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11239,11 +11239,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11252,12 +11252,12 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -14728,7 +14728,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -14738,16 +14738,16 @@
       </c>
       <c r="D300" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E300" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F300" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G300" t="inlineStr">
         <is>
@@ -14756,12 +14756,12 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I300" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J300" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14791,11 +14791,11 @@
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14809,7 +14809,7 @@
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -19288,7 +19288,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -19303,11 +19303,11 @@
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F395" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G395" t="inlineStr">
         <is>
@@ -19316,12 +19316,12 @@
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19922,16 +19922,16 @@
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -24080,7 +24080,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
@@ -24095,7 +24095,7 @@
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F495" t="n">
@@ -24108,12 +24108,12 @@
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I495" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/09/2022</t>
+          <t>22/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -21647,7 +21647,7 @@
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Minera Cerro Dominador S.A.</t>
+          <t>Salva-21 SpA</t>
         </is>
       </c>
       <c r="F444" t="n">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19399,11 +19399,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24204,12 +24204,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/09/2022</t>
+          <t>21/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19399,11 +19399,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24204,12 +24204,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11287,11 +11287,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11300,12 +11300,12 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -14776,7 +14776,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -14786,16 +14786,16 @@
       </c>
       <c r="D301" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F301" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G301" t="inlineStr">
         <is>
@@ -14804,12 +14804,12 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I301" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J301" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14839,11 +14839,11 @@
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14857,7 +14857,7 @@
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -19336,7 +19336,7 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -19351,11 +19351,11 @@
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F396" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G396" t="inlineStr">
         <is>
@@ -19364,12 +19364,12 @@
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I396" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J396" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19399,11 +19399,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19960,7 +19960,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -19970,16 +19970,16 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F409" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G409" t="inlineStr">
         <is>
@@ -19988,12 +19988,12 @@
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I409" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J409" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -24128,7 +24128,7 @@
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
@@ -24143,7 +24143,7 @@
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F496" t="n">
@@ -24156,12 +24156,12 @@
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I496" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24204,12 +24204,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19399,11 +19399,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19447,11 +19447,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19460,12 +19460,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24204,12 +24204,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F498" t="n">
@@ -24252,12 +24252,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19399,11 +19399,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19447,11 +19447,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19460,12 +19460,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24204,12 +24204,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
@@ -24252,12 +24252,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/12/2022</t>
+          <t>21/12/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11335,11 +11335,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11348,12 +11348,12 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -14824,7 +14824,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -14834,16 +14834,16 @@
       </c>
       <c r="D302" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F302" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G302" t="inlineStr">
         <is>
@@ -14852,12 +14852,12 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I302" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14887,11 +14887,11 @@
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14905,7 +14905,7 @@
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -19384,7 +19384,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -19399,11 +19399,11 @@
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F397" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G397" t="inlineStr">
         <is>
@@ -19412,12 +19412,12 @@
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I397" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19447,11 +19447,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19460,12 +19460,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -20008,7 +20008,7 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
@@ -20018,16 +20018,16 @@
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F410" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G410" t="inlineStr">
         <is>
@@ -20036,12 +20036,12 @@
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -24176,7 +24176,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -24191,7 +24191,7 @@
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F497" t="n">
@@ -24204,12 +24204,12 @@
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I497" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J497" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F498" t="n">
@@ -24252,12 +24252,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19447,11 +19447,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19460,12 +19460,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,11 +19495,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F498" t="n">
@@ -24252,12 +24252,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -24300,12 +24300,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11383,11 +11383,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11396,12 +11396,12 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -14872,7 +14872,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -14882,16 +14882,16 @@
       </c>
       <c r="D303" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F303" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G303" t="inlineStr">
         <is>
@@ -14900,12 +14900,12 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I303" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J303" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14935,11 +14935,11 @@
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14953,7 +14953,7 @@
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -19432,7 +19432,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -19447,11 +19447,11 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F398" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G398" t="inlineStr">
         <is>
@@ -19460,12 +19460,12 @@
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I398" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J398" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,11 +19495,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -20056,7 +20056,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
@@ -20066,16 +20066,16 @@
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F411" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G411" t="inlineStr">
         <is>
@@ -20084,12 +20084,12 @@
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -24224,7 +24224,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -24239,7 +24239,7 @@
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F498" t="n">
@@ -24252,12 +24252,12 @@
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I498" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J498" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -24300,12 +24300,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,11 +19495,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -24300,12 +24300,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,11 +19495,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -24300,12 +24300,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>24/01/2023</t>
+          <t>31/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,11 +19495,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -24300,12 +24300,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11431,11 +11431,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11444,12 +11444,12 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -14920,7 +14920,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -14930,16 +14930,16 @@
       </c>
       <c r="D304" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E304" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F304" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G304" t="inlineStr">
         <is>
@@ -14948,12 +14948,12 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I304" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14983,11 +14983,11 @@
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -15001,7 +15001,7 @@
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -19480,7 +19480,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -19495,11 +19495,11 @@
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F399" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G399" t="inlineStr">
         <is>
@@ -19508,12 +19508,12 @@
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -20104,7 +20104,7 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
@@ -20114,16 +20114,16 @@
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F412" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G412" t="inlineStr">
         <is>
@@ -20132,12 +20132,12 @@
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I412" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J412" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -24272,7 +24272,7 @@
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
@@ -24287,7 +24287,7 @@
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F499" t="n">
@@ -24300,12 +24300,12 @@
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>15/02/2023</t>
+          <t>17/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -11479,11 +11479,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11492,12 +11492,12 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -14968,7 +14968,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -14978,16 +14978,16 @@
       </c>
       <c r="D305" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F305" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G305" t="inlineStr">
         <is>
@@ -14996,12 +14996,12 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I305" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J305" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15031,11 +15031,11 @@
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15049,7 +15049,7 @@
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -19528,7 +19528,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -19543,11 +19543,11 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F400" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G400" t="inlineStr">
         <is>
@@ -19556,12 +19556,12 @@
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I400" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J400" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -20152,7 +20152,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -20162,16 +20162,16 @@
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F413" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G413" t="inlineStr">
         <is>
@@ -20180,12 +20180,12 @@
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I413" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J413" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -24320,7 +24320,7 @@
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
@@ -24335,7 +24335,7 @@
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F500" t="n">
@@ -24348,12 +24348,12 @@
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I500" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J500" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>20/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -4231,7 +4231,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Enel Distribución Chile S.A.</t>
+          <t>Sociedad Transmisora Metropolitana II S.A.</t>
         </is>
       </c>
       <c r="F81" t="n">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/02/2023</t>
+          <t>02/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -2263,7 +2263,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Solek Chile Services SpA</t>
+          <t>Parque Solar Montaña SpA.</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -548,7 +548,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10575,7 +10575,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>24/05/2013</t>
+          <t>25/05/2013</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
+          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -11527,11 +11527,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11540,12 +11540,12 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -15016,7 +15016,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -15026,16 +15026,16 @@
       </c>
       <c r="D306" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E306" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F306" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G306" t="inlineStr">
         <is>
@@ -15044,12 +15044,12 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I306" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15079,11 +15079,11 @@
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15097,7 +15097,7 @@
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -19576,7 +19576,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -19591,11 +19591,11 @@
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F401" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G401" t="inlineStr">
         <is>
@@ -19604,12 +19604,12 @@
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I401" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J401" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -20200,7 +20200,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -20210,16 +20210,16 @@
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F414" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G414" t="inlineStr">
         <is>
@@ -20228,12 +20228,12 @@
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I414" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J414" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -24368,7 +24368,7 @@
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Transporte Terrestre en camiones de Sustancias y Residuos Peligrosos entre las Regiones V y X 201 (e-seia)</t>
+          <t>Transporte de sustancias peligrosas "Transportes Bello". 200 (e-seia)</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
@@ -24383,7 +24383,7 @@
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>TRANSPORTES BELLO E HIJOS LTDA.</t>
         </is>
       </c>
       <c r="F501" t="n">
@@ -24396,12 +24396,12 @@
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I501" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1791015&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=1795567&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J501" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -10575,7 +10575,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>25/05/2013</t>
+          <t>24/05/2013</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/08/2023</t>
+          <t>23/08/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -980,7 +980,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -11575,11 +11575,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11588,12 +11588,12 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -15064,7 +15064,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -15074,16 +15074,16 @@
       </c>
       <c r="D307" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E307" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F307" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G307" t="inlineStr">
         <is>
@@ -15092,12 +15092,12 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I307" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15127,11 +15127,11 @@
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -19624,7 +19624,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -19639,11 +19639,11 @@
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F402" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G402" t="inlineStr">
         <is>
@@ -19652,12 +19652,12 @@
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I402" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -20248,7 +20248,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
@@ -20258,16 +20258,16 @@
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F415" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G415" t="inlineStr">
         <is>
@@ -20276,12 +20276,12 @@
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I415" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19735,11 +19735,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -11623,11 +11623,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11636,12 +11636,12 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -15112,7 +15112,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -15122,16 +15122,16 @@
       </c>
       <c r="D308" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F308" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G308" t="inlineStr">
         <is>
@@ -15140,12 +15140,12 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I308" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J308" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -19672,7 +19672,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -19687,11 +19687,11 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F403" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G403" t="inlineStr">
         <is>
@@ -19700,12 +19700,12 @@
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19735,11 +19735,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -20296,7 +20296,7 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
@@ -20306,16 +20306,16 @@
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F416" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G416" t="inlineStr">
         <is>
@@ -20324,12 +20324,12 @@
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I416" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J416" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20584,7 +20584,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
@@ -20594,16 +20594,16 @@
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F422" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G422" t="inlineStr">
         <is>
@@ -20612,12 +20612,12 @@
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I422" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/10/2023</t>
+          <t>18/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19735,11 +19735,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19783,11 +19783,11 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19735,11 +19735,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19783,11 +19783,11 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2023</t>
+          <t>23/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -11671,11 +11671,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11684,12 +11684,12 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -15160,7 +15160,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -15170,16 +15170,16 @@
       </c>
       <c r="D309" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F309" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G309" t="inlineStr">
         <is>
@@ -15188,12 +15188,12 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I309" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J309" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15223,11 +15223,11 @@
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15241,7 +15241,7 @@
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -19720,7 +19720,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -19735,11 +19735,11 @@
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F404" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G404" t="inlineStr">
         <is>
@@ -19748,12 +19748,12 @@
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I404" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J404" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19783,11 +19783,11 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -20344,7 +20344,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
@@ -20354,16 +20354,16 @@
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F417" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G417" t="inlineStr">
         <is>
@@ -20372,12 +20372,12 @@
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I417" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20632,7 +20632,7 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
@@ -20642,16 +20642,16 @@
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F423" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G423" t="inlineStr">
         <is>
@@ -20660,12 +20660,12 @@
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I423" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19783,11 +19783,11 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19831,11 +19831,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -11719,11 +11719,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11732,12 +11732,12 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -15208,7 +15208,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -15218,16 +15218,16 @@
       </c>
       <c r="D310" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E310" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F310" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G310" t="inlineStr">
         <is>
@@ -15236,12 +15236,12 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I310" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15271,11 +15271,11 @@
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15289,7 +15289,7 @@
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -19768,7 +19768,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -19783,11 +19783,11 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F405" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G405" t="inlineStr">
         <is>
@@ -19796,12 +19796,12 @@
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I405" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J405" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19831,11 +19831,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -20392,7 +20392,7 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
@@ -20402,16 +20402,16 @@
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F418" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G418" t="inlineStr">
         <is>
@@ -20420,12 +20420,12 @@
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I418" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J418" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20680,7 +20680,7 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
@@ -20690,16 +20690,16 @@
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F424" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G424" t="inlineStr">
         <is>
@@ -20708,12 +20708,12 @@
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I424" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J424" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21160,7 +21160,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -21170,16 +21170,16 @@
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F434" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G434" t="inlineStr">
         <is>
@@ -21188,12 +21188,12 @@
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I434" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J434" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19831,11 +19831,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19831,11 +19831,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Inmobiliaria y Rentas Logística S.A.</t>
+          <t>Inmobiliaria y Rentas Logística S.A.....</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -11767,11 +11767,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11780,12 +11780,12 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -15256,7 +15256,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -15266,16 +15266,16 @@
       </c>
       <c r="D311" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F311" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G311" t="inlineStr">
         <is>
@@ -15284,12 +15284,12 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I311" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J311" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15319,11 +15319,11 @@
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15337,7 +15337,7 @@
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15362,16 +15362,16 @@
       </c>
       <c r="D313" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15380,12 +15380,12 @@
       </c>
       <c r="H313" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -19816,7 +19816,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -19831,11 +19831,11 @@
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F406" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G406" t="inlineStr">
         <is>
@@ -19844,12 +19844,12 @@
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -20440,7 +20440,7 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
@@ -20450,16 +20450,16 @@
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F419" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G419" t="inlineStr">
         <is>
@@ -20468,12 +20468,12 @@
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I419" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J419" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20728,7 +20728,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -20738,16 +20738,16 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F425" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G425" t="inlineStr">
         <is>
@@ -20756,12 +20756,12 @@
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I425" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J425" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20872,7 +20872,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -20882,16 +20882,16 @@
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F428" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G428" t="inlineStr">
         <is>
@@ -20900,12 +20900,12 @@
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I428" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J428" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -21016,7 +21016,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
@@ -21026,16 +21026,16 @@
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F431" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G431" t="inlineStr">
         <is>
@@ -21044,12 +21044,12 @@
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I431" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21208,7 +21208,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -21218,16 +21218,16 @@
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F435" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G435" t="inlineStr">
         <is>
@@ -21236,12 +21236,12 @@
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I435" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J435" t="inlineStr">
@@ -21304,7 +21304,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
@@ -21314,16 +21314,16 @@
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F437" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G437" t="inlineStr">
         <is>
@@ -21332,12 +21332,12 @@
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I437" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19927,11 +19927,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21458,16 +21458,16 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -2119,7 +2119,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Energy Lancuyen SpA</t>
+          <t>Planta Solar Santa Teresita II SpA.</t>
         </is>
       </c>
       <c r="F37" t="n">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>5261</v>
+        <v>8758</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>8758</v>
+        <v>9000</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19927,11 +19927,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21458,16 +21458,16 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/11/2023</t>
+          <t>05/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19927,11 +19927,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21458,16 +21458,16 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>9000</v>
+        <v>5261</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19927,11 +19927,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21458,16 +21458,16 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">

--- a/data/Lampa.xlsx
+++ b/data/Lampa.xlsx
@@ -740,7 +740,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
+          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -11815,11 +11815,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Logística e Inmobiliaria Lipangue S.A</t>
+          <t>Exportadora Pacífico Sur SpA</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>16000</v>
+        <v>450</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11828,12 +11828,12 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ampliación Planta de Almacenamiento de Alcohol Etílico</t>
+          <t>Centro de Bodega de Almacenamiento de Sustancias Peligrosas-ECOLOCK</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -11863,11 +11863,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Exportadora Pacífico Sur SpA</t>
+          <t>Logística e Inmobiliaria Lipangue S.A</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>450</v>
+        <v>16000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11876,12 +11876,12 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7658938&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=7657410&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -15304,7 +15304,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
+          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -15314,16 +15314,16 @@
       </c>
       <c r="D312" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Warehousing Valle Grande S.A</t>
+          <t>Transportes Servired Ltda</t>
         </is>
       </c>
       <c r="F312" t="n">
-        <v>5261</v>
+        <v>9000</v>
       </c>
       <c r="G312" t="inlineStr">
         <is>
@@ -15332,12 +15332,12 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I312" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
@@ -15352,7 +15352,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
+          <t>"Ampliación Bodegas Productos Peligrosos Warehousing"</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -15367,11 +15367,11 @@
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Ilustre Municipalidad de Lampa</t>
+          <t>Warehousing Valle Grande S.A</t>
         </is>
       </c>
       <c r="F313" t="n">
-        <v>8758</v>
+        <v>5261</v>
       </c>
       <c r="G313" t="inlineStr">
         <is>
@@ -15385,7 +15385,7 @@
       </c>
       <c r="I313" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5606763&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
@@ -15400,7 +15400,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>"Transporte de Cal Viva" Regiones de Coquimbo, Valparaíso, Metropolitana y del Libertador Bernardo O"Higgins</t>
+          <t>SISTEMA DE TRATAMIENTO DE AGUAS SERVIDAS DE BATUCO</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -15410,16 +15410,16 @@
       </c>
       <c r="D314" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Transportes Servired Ltda</t>
+          <t>Ilustre Municipalidad de Lampa</t>
         </is>
       </c>
       <c r="F314" t="n">
-        <v>9000</v>
+        <v>8758</v>
       </c>
       <c r="G314" t="inlineStr">
         <is>
@@ -15428,12 +15428,12 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I314" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5578944&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=5550575&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J314" t="inlineStr">
@@ -19864,7 +19864,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
+          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -19879,11 +19879,11 @@
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
         </is>
       </c>
       <c r="F407" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G407" t="inlineStr">
         <is>
@@ -19892,12 +19892,12 @@
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
@@ -19912,7 +19912,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Echeverria, Fabricacion y Envasado de Alimentos de Consumo Animal (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO M.P.R.M.S- 99 ACTUALIZACION DE LA VIALIDAD METROPOLITANA Exp 215/08 (e-seia)</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
@@ -19927,11 +19927,11 @@
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Echeverría y Compañía Sociedad Comercial Limitada</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F408" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G408" t="inlineStr">
         <is>
@@ -19940,12 +19940,12 @@
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I408" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3400274&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3399345&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
@@ -20488,7 +20488,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -20498,16 +20498,16 @@
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Sociedad Recycling Instruments Limitada</t>
         </is>
       </c>
       <c r="F420" t="n">
-        <v>1750</v>
+        <v>150</v>
       </c>
       <c r="G420" t="inlineStr">
         <is>
@@ -20516,12 +20516,12 @@
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I420" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J420" t="inlineStr">
@@ -20536,7 +20536,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Ampliacioón y Optimización de asunto tecnicos de la RCA Nº 14/2003 Ampliacioón y Optimización de asunto tecnicos (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -20546,16 +20546,16 @@
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Sociedad Recycling Instruments Limitada</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F421" t="n">
-        <v>150</v>
+        <v>1750</v>
       </c>
       <c r="G421" t="inlineStr">
         <is>
@@ -20564,12 +20564,12 @@
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I421" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3226770&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3223712&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J421" t="inlineStr">
@@ -20776,7 +20776,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
+          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -20786,16 +20786,16 @@
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Transportes Mario Morozin Ltda.</t>
+          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
         </is>
       </c>
       <c r="F426" t="n">
-        <v>1750</v>
+        <v>0</v>
       </c>
       <c r="G426" t="inlineStr">
         <is>
@@ -20804,12 +20804,12 @@
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I426" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J426" t="inlineStr">
@@ -20824,7 +20824,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>MODIFICACION PLAN REGULADOR METROPOLITANO DE SANTIAGO - MP.R.M.S.-99 (e-seia)</t>
+          <t>TRANSPORTE TERRESTRE DE RESIDUOS PELIGROSOS (e-seia)</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -20834,16 +20834,16 @@
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Secretaría Ministerial Metropolitana de Vivienda y Urbanismo</t>
+          <t>Transportes Mario Morozin Ltda.</t>
         </is>
       </c>
       <c r="F427" t="n">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G427" t="inlineStr">
         <is>
@@ -20852,12 +20852,12 @@
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I427" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3193135&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3146771&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
@@ -20920,7 +20920,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Proceso de Descontaminación (e-seia)</t>
+          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -20930,16 +20930,16 @@
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Innovación Tecnologica Oxol Ltda.</t>
+          <t>GABRIEL MOLINA MUÑOZ</t>
         </is>
       </c>
       <c r="F429" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G429" t="inlineStr">
         <is>
@@ -20948,12 +20948,12 @@
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>Rechazado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I429" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
@@ -20968,7 +20968,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>TRANSPORTE Y MANEJO IN SITU DE RESIDUOS SÓLIDOS Y LÍQUIDOS (e-seia)</t>
+          <t>Proceso de Descontaminación (e-seia)</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -20978,16 +20978,16 @@
       </c>
       <c r="D430" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>GABRIEL MOLINA MUÑOZ</t>
+          <t>Innovación Tecnologica Oxol Ltda.</t>
         </is>
       </c>
       <c r="F430" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G430" t="inlineStr">
         <is>
@@ -20996,12 +20996,12 @@
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Rechazado</t>
         </is>
       </c>
       <c r="I430" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3142004&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3147235&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J430" t="inlineStr">
@@ -21064,7 +21064,7 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
+          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
@@ -21074,16 +21074,16 @@
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
+          <t>Ecobio SpA</t>
         </is>
       </c>
       <c r="F432" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="G432" t="inlineStr">
         <is>
@@ -21092,12 +21092,12 @@
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I432" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J432" t="inlineStr">
@@ -21112,7 +21112,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Proyecto Interregional de Manejo y Transporte de Residuos Industriales entre Arica y Puerto Montt (e-seia)</t>
+          <t>Nueva Planta de Titán Industrias Tecnológicas Ltda. Nueva Planta de Titán Industrias Tecnológicas Ltda (e-seia)</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
@@ -21122,16 +21122,16 @@
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Ecobio SpA</t>
+          <t>Titan Industrias Tecnologicas de Desarrollo de Proyectos de Ingenieria Ltda.</t>
         </is>
       </c>
       <c r="F433" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="G433" t="inlineStr">
         <is>
@@ -21140,12 +21140,12 @@
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I433" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3085754&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3123064&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
@@ -21256,7 +21256,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
+          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
@@ -21266,16 +21266,16 @@
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>ANASAC CHILE S.A.</t>
+          <t>Jorquera Transporte S.A.</t>
         </is>
       </c>
       <c r="F436" t="n">
-        <v>3000</v>
+        <v>1650</v>
       </c>
       <c r="G436" t="inlineStr">
         <is>
@@ -21284,12 +21284,12 @@
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I436" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J436" t="inlineStr">
@@ -21352,7 +21352,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Proyecto de Transporte de Carga por Carretera para Sustancias Químicas, entre las Regiones I a la X (e-seia)</t>
+          <t>Diversificacion y aumento en la capacidad de formulacion y almacenamiento planta agroquimicos ANASAC Lampa (e-seia)</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
@@ -21362,16 +21362,16 @@
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
         <is>
-          <t>Jorquera Transporte S.A.</t>
+          <t>ANASAC CHILE S.A.</t>
         </is>
       </c>
       <c r="F438" t="n">
-        <v>1650</v>
+        <v>3000</v>
       </c>
       <c r="G438" t="inlineStr">
         <is>
@@ -21380,12 +21380,12 @@
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3079271&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3090808&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
@@ -21410,16 +21410,16 @@
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>RM</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Transportes Bretti Ltda.</t>
+          <t>VICTOR PETERMANN LETELIER</t>
         </is>
       </c>
       <c r="F439" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="G439" t="inlineStr">
         <is>
@@ -21428,12 +21428,12 @@
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>Desistido</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I439" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J439" t="inlineStr">
@@ -21458,16 +21458,16 @@
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>RM</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>VICTOR PETERMANN LETELIER</t>
+          <t>Transportes Bretti Ltda.</t>
         </is>
       </c>
       <c r="F440" t="n">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="G440" t="inlineStr">
         <is>
@@ -21476,12 +21476,12 @@
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3088824&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3086343&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
